--- a/docs/odh/shr-core-Specimen-model.xlsx
+++ b/docs/odh/shr-core-Specimen-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="98">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Specimen-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Specimen-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-Specimen-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +205,7 @@
     <t>shr-core-Specimen-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-model]]}
 </t>
   </si>
   <si>
@@ -219,66 +215,65 @@
     <t>shr-core-Specimen-model.accessionIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AccessionIdentifier-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Identifier assigned by the lab</t>
   </si>
   <si>
-    <t>shr-core-Specimen-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
+    <t>shr-core-Specimen-model.specimenType</t>
+  </si>
+  <si>
+    <t>The type of material the specimen contains or consists of.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/v2-0487</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+    <t>shr-core-Specimen-model.collectionSource[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Specimen-model.collectionSource[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
+    <t>The person or thing the sample was obtained from.</t>
+  </si>
+  <si>
+    <t>shr-core-Specimen-model.collectionTime[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>When the sample was obtained, as a specific time or time period.</t>
+  </si>
+  <si>
+    <t>shr-core-Specimen-model.collectionMethod</t>
+  </si>
+  <si>
+    <t>How the specimen was obtained.</t>
+  </si>
+  <si>
+    <t>shr-core-Specimen-model.collectionSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The person or thing the sample was obtained from.</t>
-  </si>
-  <si>
-    <t>shr-core-Specimen-model.collectionTime[x]</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>When the sample was obtained, as a specific time or time period.</t>
-  </si>
-  <si>
-    <t>shr-core-Specimen-model.collectionMethod</t>
-  </si>
-  <si>
-    <t>How the specimen was obtained.</t>
-  </si>
-  <si>
-    <t>shr-core-Specimen-model.collectionSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>The body site where specimen was collected</t>
   </si>
   <si>
     <t>shr-core-Specimen-model.amountOrSize</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -302,7 +297,7 @@
     <t>shr-core-Specimen-model.specimenContainer</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenContainer-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SpecimenContainer-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -312,7 +307,7 @@
     <t>shr-core-Specimen-model.specimenTreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenTreatment-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SpecimenTreatment-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -477,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -889,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -921,7 +916,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -944,13 +939,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1001,7 +996,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1018,7 +1013,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1041,13 +1036,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1098,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1115,7 +1110,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1141,10 +1136,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1171,11 +1166,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1193,7 +1188,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1210,7 +1205,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1233,13 +1228,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1290,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1307,7 +1302,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1330,13 +1325,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1387,7 +1382,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1404,7 +1399,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1427,13 +1422,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1484,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1501,7 +1496,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1527,10 +1522,10 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1557,14 +1552,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
         <v>69</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1579,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1596,7 +1591,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1619,13 +1614,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1676,7 +1671,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1693,7 +1688,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1716,13 +1711,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1773,7 +1768,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1790,7 +1785,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1816,10 +1811,10 @@
         <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1870,7 +1865,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1887,7 +1882,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1910,13 +1905,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1967,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -1984,7 +1979,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2007,13 +2002,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2064,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2081,7 +2076,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2104,13 +2099,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2146,7 +2141,7 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2161,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2178,7 +2173,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2201,13 +2196,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2258,7 +2253,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2275,7 +2270,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2298,13 +2293,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2355,7 +2350,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2372,7 +2367,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2398,10 +2393,10 @@
         <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2452,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2469,7 +2464,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2495,10 +2490,10 @@
         <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2549,7 +2544,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
